--- a/data/trans_bre/IP7_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP7_R-Habitat-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-60,57%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,21%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,93%</t>
+          <t>29,44%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; -0,78</t>
+          <t>-18,13; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,69</t>
+          <t>0,0; 24,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,2</t>
+          <t>0,0; 24,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 6,68</t>
+          <t>-14,11; 12,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-85,4; -7,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-85,02; 444,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-70,73; 268,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 529,93</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-75,55%</t>
+          <t>-60,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-29,91%</t>
+          <t>-12,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-23,77%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-60,38%</t>
+          <t>100,93%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; -0,37</t>
+          <t>-6,43; -0,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,6</t>
+          <t>-2,0; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,45</t>
+          <t>-1,95; 2,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 0,71</t>
+          <t>-0,98; 6,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 31,03</t>
+          <t>-85,4; -7,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-75,67; 118,71</t>
+          <t>-85,02; 444,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 683,58</t>
+          <t>-70,73; 268,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 65,03</t>
+          <t>-48,12; 529,93</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-21,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-18,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-37,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>84,93%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 0,0</t>
+          <t>-3,05; 2,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,37</t>
+          <t>-3,85; 2,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,78</t>
+          <t>-4,05; 1,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 12,17</t>
+          <t>-1,35; 4,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,77; 322,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,86; 92,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,25; 120,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,61; —</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-21,72%</t>
+          <t>-75,55%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>-29,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-37,62%</t>
+          <t>-23,77%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84,93%</t>
+          <t>-60,38%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 2,08</t>
+          <t>-4,49; -0,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 2,13</t>
+          <t>-3,69; 1,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,53</t>
+          <t>-2,09; 1,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,1</t>
+          <t>-5,03; 0,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-88,77; 322,1</t>
+          <t>-100,0; 31,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-72,86; 92,85</t>
+          <t>-75,67; 118,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-85,25; 120,5</t>
+          <t>-100,0; 683,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-75,61; —</t>
+          <t>-100,0; 65,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP7_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP7_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 0,0</t>
+          <t>-13,83; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,37</t>
+          <t>0,0; 23,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,78</t>
+          <t>0,0; 25,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 3,65</t>
+          <t>-2,63; 3,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 3,67</t>
+          <t>-2,01; 3,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 3,2</t>
+          <t>-3,51; 3,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 3,27</t>
+          <t>-4,66; 3,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,83; 458,8</t>
+          <t>-75,05; 416,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-99,53; 348,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; -0,78</t>
+          <t>-6,68; -0,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,69</t>
+          <t>-1,97; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,2</t>
+          <t>-2,11; 2,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 6,68</t>
+          <t>-0,65; 6,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-85,4; -7,21</t>
+          <t>-84,37; -10,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-85,02; 444,39</t>
+          <t>-84,08; 346,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-70,73; 268,91</t>
+          <t>-73,04; 254,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,12; 529,93</t>
+          <t>-37,93; 526,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 2,08</t>
+          <t>-3,2; 2,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 2,13</t>
+          <t>-3,68; 2,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,53</t>
+          <t>-4,15; 1,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,1</t>
+          <t>-1,43; 4,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-88,77; 322,1</t>
+          <t>-86,56; 320,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,86; 92,85</t>
+          <t>-70,14; 126,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-85,25; 120,5</t>
+          <t>-83,41; 117,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,61; —</t>
+          <t>-70,74; —</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,49; -0,37</t>
+          <t>-4,42; -0,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,6</t>
+          <t>-3,97; 1,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 1,45</t>
+          <t>-2,17; 1,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 0,71</t>
+          <t>-5,1; 0,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 31,03</t>
+          <t>-100,0; 47,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-75,67; 118,71</t>
+          <t>-76,11; 100,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 683,58</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 65,03</t>
+          <t>-100,0; 86,47</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,3; -0,54</t>
+          <t>-3,13; -0,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,22</t>
+          <t>-1,5; 1,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,02</t>
+          <t>-1,4; 1,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,98</t>
+          <t>-1,08; 2,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-74,28; -14,75</t>
+          <t>-72,52; -9,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 72,13</t>
+          <t>-46,34; 68,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,57; 70,58</t>
+          <t>-51,31; 66,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-43,92; 116,89</t>
+          <t>-37,51; 136,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP7_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP7_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 0,0</t>
+          <t>-15,73; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,83</t>
+          <t>0,0; 27,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,66</t>
+          <t>0,0; 29,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 12,17</t>
+          <t>-13,73; 12,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,27 +768,27 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,96</t>
+          <t>-3,16; 3,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 3,85</t>
+          <t>-2,04; 3,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,55</t>
+          <t>-3,72; 3,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 3,38</t>
+          <t>-4,78; 3,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,05; 416,97</t>
+          <t>-82,14; 337,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; -0,86</t>
+          <t>-6,57; -0,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 1,69</t>
+          <t>-1,99; 1,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,2</t>
+          <t>-2,13; 2,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 6,97</t>
+          <t>-0,5; 6,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-84,37; -10,39</t>
+          <t>-85,43; -6,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-84,08; 346,3</t>
+          <t>-85,65; 355,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-73,04; 254,93</t>
+          <t>-72,05; 307,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 526,17</t>
+          <t>-34,51; 727,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,06</t>
+          <t>-2,98; 2,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,46</t>
+          <t>-3,76; 2,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,32</t>
+          <t>-4,2; 1,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,32</t>
+          <t>-1,19; 4,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,56; 320,58</t>
+          <t>-84,01; 234,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,14; 126,99</t>
+          <t>-69,66; 122,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-83,41; 117,44</t>
+          <t>-82,41; 132,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,74; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; -0,14</t>
+          <t>-4,28; -0,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,73</t>
+          <t>-3,81; 1,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 1,7</t>
+          <t>-2,03; 1,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 0,55</t>
+          <t>-5,09; 0,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 47,05</t>
+          <t>-100,0; 54,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-76,11; 100,42</t>
+          <t>-75,52; 103,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>-100,0; 537,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 86,47</t>
+          <t>-100,0; 78,5</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,13; -0,38</t>
+          <t>-3,24; -0,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,14</t>
+          <t>-1,38; 1,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 1,02</t>
+          <t>-1,34; 0,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,17</t>
+          <t>-1,1; 2,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,52; -9,99</t>
+          <t>-73,33; -17,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-46,34; 68,1</t>
+          <t>-46,05; 68,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-51,31; 66,01</t>
+          <t>-50,34; 68,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,51; 136,9</t>
+          <t>-38,77; 114,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP7_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP7_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,38</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-7,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>130,68%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>-5,86%</t>
         </is>
       </c>
     </row>
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,73; 0,0</t>
+          <t>-3,26; 2,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,77</t>
+          <t>-0,82; 5,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 29,85</t>
+          <t>-2,47; 4,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,73; 12,44</t>
+          <t>-3,66; 3,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-81,99; 235,64</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,89; 604,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>-60,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>-12,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-26,91%</t>
+          <t>178,05%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 3,72</t>
+          <t>-6,43; -0,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,39</t>
+          <t>-2,0; 1,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 3,22</t>
+          <t>-1,95; 2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 3,11</t>
+          <t>-0,33; 14,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,14; 337,63</t>
+          <t>-85,4; -7,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,02; 444,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,73; 268,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,88; 1009,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-60,57%</t>
+          <t>-21,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,21%</t>
+          <t>-18,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>-37,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>100,93%</t>
+          <t>56,07%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,57; -0,58</t>
+          <t>-3,05; 2,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,63</t>
+          <t>-3,85; 2,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,33</t>
+          <t>-4,05; 1,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 6,61</t>
+          <t>-1,92; 3,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-85,43; -6,09</t>
+          <t>-88,77; 322,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-85,65; 355,79</t>
+          <t>-72,86; 92,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,05; 307,37</t>
+          <t>-85,25; 120,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 727,88</t>
+          <t>-79,59; 954,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-21,72%</t>
+          <t>-75,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>-29,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-37,62%</t>
+          <t>-23,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>84,93%</t>
+          <t>-60,2%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 2,08</t>
+          <t>-4,49; -0,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 2,45</t>
+          <t>-3,69; 1,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,43</t>
+          <t>-2,09; 1,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,19</t>
+          <t>-5,3; 0,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,01; 234,45</t>
+          <t>-100,0; 31,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,66; 122,2</t>
+          <t>-75,67; 118,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-82,41; 132,73</t>
+          <t>-100,0; 683,58</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 73,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-75,55%</t>
+          <t>-51,56%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-29,91%</t>
+          <t>-6,16%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-23,77%</t>
+          <t>-8,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-60,38%</t>
+          <t>29,55%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -0,15</t>
+          <t>-3,3; -0,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 1,83</t>
+          <t>-1,45; 1,22</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,64</t>
+          <t>-1,38; 1,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 0,54</t>
+          <t>-0,93; 3,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 54,09</t>
+          <t>-74,28; -14,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-75,52; 103,95</t>
+          <t>-47,45; 72,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 537,68</t>
+          <t>-51,57; 70,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 78,5</t>
+          <t>-36,47; 201,16</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-51,56%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-6,16%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-8,33%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>13,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; -0,52</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,38; 1,21</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 0,97</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 2,01</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-73,33; -17,66</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-46,05; 68,31</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-50,34; 68,59</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-38,77; 114,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
